--- a/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
+++ b/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1CB57-D8DB-434F-9842-6FB78A80B8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E486A77-3976-4559-8406-BA9631207FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenAccountingPeriod" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="273">
   <si>
     <t>OBJECT VARIABLE NAME</t>
   </si>
@@ -18383,7 +18383,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18630,9 +18630,7 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>132</v>
       </c>
@@ -18668,9 +18666,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="13">
-      <c r="A8" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>132</v>
       </c>
@@ -18702,9 +18698,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="13">
-      <c r="A9" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>132</v>
       </c>
@@ -18740,9 +18734,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="13">
-      <c r="A10" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>132</v>
       </c>
@@ -18774,9 +18766,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="13">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>132</v>
       </c>
@@ -18812,9 +18802,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="13">
-      <c r="A12" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>132</v>
       </c>
@@ -18846,9 +18834,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>132</v>
       </c>
@@ -18882,9 +18868,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="13">
-      <c r="A14" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>132</v>
       </c>
@@ -18916,9 +18900,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>152</v>
       </c>

--- a/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
+++ b/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E486A77-3976-4559-8406-BA9631207FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBE481-6ADF-4AE1-B030-D7E6827194C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="274">
   <si>
     <t>OBJECT VARIABLE NAME</t>
   </si>
@@ -485,9 +483,6 @@
   </si>
   <si>
     <t>Wait</t>
-  </si>
-  <si>
-    <t>SetDelay</t>
   </si>
   <si>
     <t>Step 12</t>
@@ -855,6 +850,12 @@
   </si>
   <si>
     <t>Exists||Step 34-Step 37||Step 38-Step 42</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDelay</t>
   </si>
 </sst>
 </file>
@@ -18383,7 +18384,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18445,7 +18446,7 @@
         <v>113</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O1" s="20"/>
     </row>
@@ -18517,7 +18518,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N3" s="11"/>
     </row>
@@ -18553,7 +18554,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N4" s="11"/>
     </row>
@@ -18589,7 +18590,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -18620,12 +18621,12 @@
         <v>122</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N6" s="11"/>
     </row>
@@ -18656,12 +18657,12 @@
         <v>122</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -18693,7 +18694,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -18703,13 +18704,13 @@
         <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>7</v>
@@ -18718,18 +18719,18 @@
         <v>140</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N9" s="8"/>
     </row>
@@ -18739,13 +18740,13 @@
         <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>7</v>
@@ -18754,14 +18755,14 @@
         <v>136</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -18792,12 +18793,12 @@
         <v>122</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N11" s="8"/>
     </row>
@@ -18807,7 +18808,7 @@
         <v>132</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>146</v>
@@ -18829,7 +18830,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -18839,7 +18840,7 @@
         <v>132</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>149</v>
@@ -18848,22 +18849,22 @@
         <v>149</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N13" s="8"/>
     </row>
@@ -18873,7 +18874,7 @@
         <v>132</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>144</v>
@@ -18895,17 +18896,17 @@
       <c r="K14" s="9"/>
       <c r="L14" s="8"/>
       <c r="M14" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="13">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>149</v>
@@ -18914,22 +18915,22 @@
         <v>149</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="8"/>
     </row>
@@ -18938,10 +18939,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>149</v>
@@ -18956,18 +18957,18 @@
         <v>140</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N16" s="8"/>
     </row>
@@ -18976,34 +18977,34 @@
         <v>114</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="8"/>
       <c r="M17" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N17" s="8"/>
     </row>
@@ -19012,13 +19013,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>139</v>
@@ -19036,12 +19037,12 @@
         <v>122</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="8"/>
       <c r="M18" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N18" s="8"/>
     </row>
@@ -19050,16 +19051,16 @@
         <v>114</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>7</v>
@@ -19075,7 +19076,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
       <c r="M19" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N19" s="8"/>
     </row>
@@ -19084,10 +19085,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>149</v>
@@ -19096,22 +19097,22 @@
         <v>149</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N20" s="8"/>
     </row>
@@ -19120,22 +19121,22 @@
         <v>114</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>69</v>
@@ -19149,7 +19150,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="8"/>
       <c r="M21" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N21" s="8"/>
     </row>
@@ -19158,10 +19159,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>149</v>
@@ -19170,22 +19171,22 @@
         <v>149</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N22" s="8"/>
     </row>
@@ -19194,10 +19195,10 @@
         <v>114</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>149</v>
@@ -19206,38 +19207,38 @@
         <v>149</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="13">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>7</v>
@@ -19253,17 +19254,17 @@
       <c r="K24" s="9"/>
       <c r="L24" s="8"/>
       <c r="M24" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="13">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>149</v>
@@ -19272,22 +19273,22 @@
         <v>149</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -19296,13 +19297,13 @@
         <v>114</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>139</v>
@@ -19320,12 +19321,12 @@
         <v>122</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
       <c r="M26" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N26" s="8"/>
     </row>
@@ -19334,16 +19335,16 @@
         <v>114</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>7</v>
@@ -19359,7 +19360,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="8"/>
       <c r="M27" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N27" s="8"/>
     </row>
@@ -19368,13 +19369,13 @@
         <v>114</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>139</v>
@@ -19392,12 +19393,12 @@
         <v>122</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
       <c r="M28" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N28" s="8"/>
     </row>
@@ -19406,13 +19407,13 @@
         <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>139</v>
@@ -19430,12 +19431,12 @@
         <v>122</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
       <c r="M29" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N29" s="8"/>
     </row>
@@ -19444,16 +19445,16 @@
         <v>114</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>7</v>
@@ -19469,7 +19470,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="8"/>
       <c r="M30" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30" s="8"/>
     </row>
@@ -19478,13 +19479,13 @@
         <v>114</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>139</v>
@@ -19502,12 +19503,12 @@
         <v>122</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
       <c r="M31" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N31" s="8"/>
     </row>
@@ -19516,16 +19517,16 @@
         <v>114</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>7</v>
@@ -19541,7 +19542,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="8"/>
       <c r="M32" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N32" s="8"/>
     </row>
@@ -19550,34 +19551,34 @@
         <v>114</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="8"/>
       <c r="M33" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N33" s="8"/>
     </row>
@@ -19586,34 +19587,34 @@
         <v>114</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="8"/>
       <c r="M34" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -19622,16 +19623,16 @@
         <v>114</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>7</v>
@@ -19647,7 +19648,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="8"/>
       <c r="M35" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N35" s="8"/>
     </row>
@@ -19656,10 +19657,10 @@
         <v>114</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>149</v>
@@ -19668,22 +19669,22 @@
         <v>149</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N36" s="8"/>
     </row>
@@ -19692,16 +19693,16 @@
         <v>114</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>7</v>
@@ -19721,7 +19722,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="8"/>
       <c r="M37" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N37" s="8"/>
     </row>
@@ -19730,34 +19731,34 @@
         <v>114</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="8"/>
       <c r="M38" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N38" s="8"/>
     </row>
@@ -19766,10 +19767,10 @@
         <v>114</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>149</v>
@@ -19778,22 +19779,22 @@
         <v>149</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N39" s="8"/>
     </row>
@@ -19802,16 +19803,16 @@
         <v>114</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>7</v>
@@ -19827,7 +19828,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="8"/>
       <c r="M40" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N40" s="8"/>
     </row>
@@ -19836,13 +19837,13 @@
         <v>114</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>139</v>
@@ -19860,12 +19861,12 @@
         <v>122</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="8"/>
       <c r="M41" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N41" s="8"/>
     </row>
@@ -19874,16 +19875,16 @@
         <v>114</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>7</v>
@@ -19903,7 +19904,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="8"/>
       <c r="M42" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N42" s="8"/>
     </row>
@@ -19912,34 +19913,34 @@
         <v>114</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="8"/>
       <c r="M43" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N43" s="8"/>
     </row>
@@ -19948,10 +19949,10 @@
         <v>114</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>149</v>
@@ -19960,22 +19961,22 @@
         <v>149</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N44" s="8"/>
     </row>
@@ -19984,16 +19985,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>7</v>
@@ -20009,7 +20010,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="8"/>
       <c r="M45" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N45" s="8"/>
     </row>
@@ -20018,10 +20019,10 @@
         <v>114</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>149</v>
@@ -20030,22 +20031,22 @@
         <v>149</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -20054,16 +20055,16 @@
         <v>114</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>7</v>
@@ -20078,12 +20079,12 @@
         <v>122</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N47" s="17"/>
     </row>
@@ -20092,16 +20093,16 @@
         <v>114</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>7</v>
@@ -20117,7 +20118,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N48" s="17"/>
     </row>
@@ -20126,10 +20127,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>149</v>
@@ -20138,22 +20139,22 @@
         <v>149</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N49" s="8"/>
     </row>
@@ -20162,13 +20163,13 @@
         <v>114</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>139</v>
@@ -20186,12 +20187,12 @@
         <v>122</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="8"/>
       <c r="M50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N50" s="8"/>
     </row>
@@ -20200,16 +20201,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>7</v>
@@ -20225,7 +20226,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="8"/>
       <c r="M51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N51" s="8"/>
     </row>
@@ -20234,10 +20235,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>149</v>
@@ -20246,35 +20247,35 @@
         <v>149</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N52" s="8"/>
     </row>
     <row r="53" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>139</v>
@@ -20292,28 +20293,28 @@
         <v>122</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>7</v>
@@ -20334,26 +20335,26 @@
         <v>121</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N54" s="18"/>
     </row>
     <row r="55" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D55" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>7</v>
@@ -20368,32 +20369,32 @@
         <v>122</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N55" s="18"/>
     </row>
     <row r="56" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>7</v>
@@ -20414,26 +20415,26 @@
         <v>121</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>7</v>
@@ -20448,32 +20449,32 @@
         <v>122</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N57" s="18"/>
     </row>
     <row r="58" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>7</v>
@@ -20488,32 +20489,32 @@
         <v>122</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>7</v>
@@ -20534,32 +20535,32 @@
         <v>121</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N59" s="18"/>
     </row>
     <row r="60" spans="1:14" s="7" customFormat="1" ht="13">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>119</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
@@ -20572,7 +20573,7 @@
         <v>121</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>121</v>
@@ -20580,7 +20581,6 @@
       <c r="N60" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N60" xr:uid="{5160A2B6-86E3-4134-B81D-3A131D74123B}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H26">
     <cfRule type="duplicateValues" dxfId="86" priority="144"/>
@@ -21232,7 +21232,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>7</v>
@@ -21484,7 +21484,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>7</v>
@@ -21492,13 +21492,13 @@
     </row>
     <row r="52" spans="1:4" ht="13">
       <c r="A52" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>7</v>
@@ -21506,13 +21506,13 @@
     </row>
     <row r="53" spans="1:4" ht="13">
       <c r="A53" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>7</v>

--- a/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
+++ b/GL10_Script_OpennewGLAccountingPeriod_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBE481-6ADF-4AE1-B030-D7E6827194C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B39C7-208C-42F5-A2F7-8092B7E7806D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenAccountingPeriod" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpenAccountingPeriod!$A$1:$N$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpenAccountingPeriod!$A$1:$N$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="312">
   <si>
     <t>OBJECT VARIABLE NAME</t>
   </si>
@@ -497,12 +499,6 @@
     <t>Step 14</t>
   </si>
   <si>
-    <t>Check filter clicked</t>
-  </si>
-  <si>
-    <t>check filter</t>
-  </si>
-  <si>
     <t>Step 15</t>
   </si>
   <si>
@@ -584,9 +580,6 @@
     <t>Clicked on LedgerLink</t>
   </si>
   <si>
-    <t>Edit Accounting Period Statuses Page</t>
-  </si>
-  <si>
     <t>Step 29</t>
   </si>
   <si>
@@ -723,9 +716,6 @@
   </si>
   <si>
     <t>Step 44</t>
-  </si>
-  <si>
-    <t>Accounts Receivable Page</t>
   </si>
   <si>
     <t>Step 47</t>
@@ -834,12 +824,6 @@
     <t>Step 56</t>
   </si>
   <si>
-    <t>Exists||Step 17-Step 20||Step 21-Step 22</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'pt1:_FOr1:1:_FONSr2:0:_FOTsr2:0:soc1::content')]</t>
-  </si>
-  <si>
     <t>Step 57</t>
   </si>
   <si>
@@ -849,13 +833,145 @@
     <t>Step 59</t>
   </si>
   <si>
-    <t>Exists||Step 34-Step 37||Step 38-Step 42</t>
+    <t>Validation Check</t>
+  </si>
+  <si>
+    <t>Validation Checked</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ATp:table1::db')]/table/tbody/tr/td[2]/div/table/tbody/tr/td[1]/span</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>Step 61</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'FONSr2:0:_FOTsr2:0:cl1')]</t>
+  </si>
+  <si>
+    <t>VerifyDataAccessSet</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:pgl1')]/tbody/tr/td[5]</t>
+  </si>
+  <si>
+    <t>Step 62</t>
+  </si>
+  <si>
+    <t>Step 63</t>
+  </si>
+  <si>
+    <t>Exists||Step 17-Step 23||Step 24-Step 25</t>
+  </si>
+  <si>
+    <t>ChangeDataAccessSetLink</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:soc1::content')]</t>
+  </si>
+  <si>
+    <t>Exists||Step 36-Step 39||Step 40-Step 44</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'MAnt2:2:ap1:AT1:_ATp:ctb3')]/a[@aria-disabled='true']</t>
+  </si>
+  <si>
+    <t>ValidateOpenButton</t>
+  </si>
+  <si>
+    <t>Step 64</t>
+  </si>
+  <si>
+    <t>Step 65</t>
+  </si>
+  <si>
+    <t>VerifyOpen</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ap1:AT1:_ATp:table1:')][@title='Open']</t>
+  </si>
+  <si>
+    <t>Done1</t>
+  </si>
+  <si>
+    <t>Done2</t>
+  </si>
+  <si>
+    <t>Click Done</t>
+  </si>
+  <si>
+    <t>Clicked Done</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:MAnt2:2:ap1:SPb')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:MAnt2:1:ap1:SPb')]</t>
+  </si>
+  <si>
+    <t>Step 66</t>
+  </si>
+  <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>Step 72</t>
   </si>
   <si>
     <t>Common</t>
   </si>
   <si>
-    <t>WaitForDelay</t>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Data Access </t>
+  </si>
+  <si>
+    <t>Verified Data Access</t>
+  </si>
+  <si>
+    <t>Change Data Access Set</t>
+  </si>
+  <si>
+    <t>Checked Data Access Set</t>
+  </si>
+  <si>
+    <t>Search Period</t>
+  </si>
+  <si>
+    <t>Searched Period</t>
+  </si>
+  <si>
+    <t>Logout Page</t>
   </si>
 </sst>
 </file>
@@ -869,7 +985,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1049,19 +1165,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1070,7 +1174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1323,24 +1427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9302,40 +9388,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17166,7 +17232,67 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="93">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18381,2376 +18507,2638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.453125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="28.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.6328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="19" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="O1" s="20"/>
+      <c r="N1" s="10" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="13">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="4"/>
+      <c r="M2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:14" s="8" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="M9" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="M11" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="M15" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="M16" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="M20" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="M21" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="M22" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="M23" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="M25" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="D26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="8" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="M27" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="K34" s="4"/>
+      <c r="M34" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="M35" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="M38" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N4" s="11"/>
+      <c r="J39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="M39" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="8" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="M44" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="M48" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="6" customFormat="1">
+      <c r="A49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="M50" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="6" customFormat="1">
+      <c r="A51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="6" customFormat="1">
+      <c r="A52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="M53" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="M60" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="M62" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="M64" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="9" customFormat="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N5" s="11"/>
+      <c r="K67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    <row r="68" spans="1:13" s="9" customFormat="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="H68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N6" s="11"/>
+      <c r="J68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="13">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="8" t="s">
+    <row r="69" spans="1:13" s="9" customFormat="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G69" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="9" customFormat="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N7" s="8"/>
+      <c r="J70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="13">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="8" t="s">
+    <row r="71" spans="1:13" s="9" customFormat="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="9" customFormat="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N8" s="8"/>
+      <c r="H72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="13">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" ht="13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" ht="13">
-      <c r="A16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="13">
-      <c r="A21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A47" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N47" s="17"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A48" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N48" s="17"/>
-    </row>
-    <row r="49" spans="1:14" ht="13">
-      <c r="A49" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" ht="13">
-      <c r="A51" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="8" t="s">
+    <row r="73" spans="1:13" s="9" customFormat="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="8" t="s">
+      <c r="M73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" spans="1:14" s="7" customFormat="1" ht="13">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N60" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="86" priority="144"/>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="92" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="85" priority="145"/>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="duplicateValues" dxfId="91" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="90" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="89" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H19">
+    <cfRule type="duplicateValues" dxfId="87" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J16">
+    <cfRule type="duplicateValues" dxfId="86" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="duplicateValues" dxfId="85" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="duplicateValues" dxfId="84" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="82" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="81" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="80" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="79" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="78" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="duplicateValues" dxfId="77" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="76" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="75" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="72" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="71" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="69" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="duplicateValues" dxfId="68" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="67" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="66" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="65" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="duplicateValues" dxfId="63" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="duplicateValues" dxfId="62" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="60" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="58" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="57" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="duplicateValues" dxfId="55" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="54" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="53" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="52" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="49" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="84" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="83" priority="114"/>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="82" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="duplicateValues" dxfId="81" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="80" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J16">
-    <cfRule type="duplicateValues" dxfId="79" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="duplicateValues" dxfId="78" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="77" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="75" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="73" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="72" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="71" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="70" priority="75"/>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="69" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="68" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="67" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="65" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="64" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="62" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="61" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="60" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="59" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="58" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="57" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
-    <cfRule type="duplicateValues" dxfId="56" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="55" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="54" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="53" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="51" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="50" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="duplicateValues" dxfId="48" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="47" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="46" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="43" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I36:I37 I41:I42 I2:I3 I9 I6:I7 I11 I15:I16 I28:I29 I46:I47 I49:I50 I52:I53 I55 I57:I58 I13 I31:I33 I44 I18 I20 I25:I26 I22:I23 I39" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I38:I39 I43:I44 I2:I3 I9 I6:I7 I11 I15:I16 I30:I31 I25 I41 I68 I70:I71 I13 I33:I35 I46 I18 I20 I27:I28 I22:I23 I53:I54 I48:I51 I56:I57 I59:I66" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J60 H60 H62 J62 F1:G1048576 H64 J64" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -20761,760 +21149,858 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C55" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="22" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="C57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="22" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="C58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="22" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="C60" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="C61" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="22" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13">
-      <c r="A42" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13">
-      <c r="A43" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13">
-      <c r="A44" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13">
-      <c r="A47" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13">
-      <c r="A49" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13">
-      <c r="A50" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13">
-      <c r="A51" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13">
-      <c r="A52" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13">
-      <c r="A53" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="C62" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21522,10 +22008,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D12">
     <sortCondition ref="D2:D12"/>
   </sortState>
-  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A54:A1048576">
+  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A56:A59 A61:A1048576">
     <cfRule type="duplicateValues" dxfId="26" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A54:A1048576">
+  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A56:A59 A61:A1048576">
     <cfRule type="duplicateValues" dxfId="25" priority="98"/>
     <cfRule type="duplicateValues" dxfId="24" priority="99"/>
   </conditionalFormatting>
@@ -21587,7 +22073,7 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G38 F41:G41 F50:G1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G38 F41:G41 F50:G1048576 A54 A60" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://edrx-dev1.fs.us2.oraclecloud.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
